--- a/P1/Usability-review-template.xlsx
+++ b/P1/Usability-review-template.xlsx
@@ -73,6 +73,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="B33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAAACzJ2_fc
+turnen    (2019-12-27 13:12:29)
+The navigation has sufficient flexibility to allow users to navigate by their desired means (Medium importance)
+For example a user might want to be able to search for an item or browse by size, name or type. Although not all user preferences can or indeed should be addressed, the most useful and common navigational means should be supported.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B67" authorId="0">
       <text>
         <r>
@@ -88,21 +103,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">======
-ID#AAAACzJ2_fc
-turnen    (2019-12-27 13:12:29)
-The navigation has sufficient flexibility to allow users to navigate by their desired means (Medium importance)
-For example a user might want to be able to search for an item or browse by size, name or type. Although not all user preferences can or indeed should be addressed, the most useful and common navigational means should be supported.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B83" authorId="0">
       <text>
         <r>
@@ -115,6 +115,36 @@
 turnen    (2019-12-27 13:12:29)
 Common user errors have been taken into consideration and where possible prevented (Medium importance)
 Common user errors might be missing fields, invalid formats and invalid selections. For example, fields might limit input to particular a format (e.g. numbers only) or only become available once certain criteria have been met. JavaScript might also be utilised to provide immediate feedback for common formatting errors or errors caused by missing fields.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B107" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAAACzJ2_fU
+turnen    (2019-12-27 13:12:29)
+Users can easily get further help (e.g. telephone or email address) (Low importance)
+If a telephone help number is provided the hours of operation should be shown. If an email address or online form is provided, an indication should be given of how long a response is likely to take (e.g. within the next 24 hrs).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAAACzJ2_gw
+turnen    (2019-12-27 13:12:29)
+The search interface is appropriate to meet user goals (High importance)
+For example users are able to filter search results, an advanced search is available (if necessary) and common search conventions such as quotation marks (") and natural language searches are handled.</t>
         </r>
       </text>
     </comment>
@@ -145,36 +175,6 @@
 turnen    (2019-12-27 13:12:29)
 Links are clear, descriptive and well labelled (Medium importance)
 Links should be clearly 'clickable' (e.g. underlined or colourised) and it should be clear to users where any given link goes to. Non-descriptive links such as 'click here' should be avoided and any links going to an external website or opening a new window should be identified as such.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B107" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">======
-ID#AAAACzJ2_fU
-turnen    (2019-12-27 13:12:29)
-Users can easily get further help (e.g. telephone or email address) (Low importance)
-If a telephone help number is provided the hours of operation should be shown. If an email address or online form is provided, an indication should be given of how long a response is likely to take (e.g. within the next 24 hrs).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B51" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">======
-ID#AAAACzJ2_gw
-turnen    (2019-12-27 13:12:29)
-The search interface is appropriate to meet user goals (High importance)
-For example users are able to filter search results, an advanced search is available (if necessary) and common search conventions such as quotation marks (") and natural language searches are handled.</t>
         </r>
       </text>
     </comment>
@@ -223,21 +223,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">======
-ID#AAAACzJ2_gU
-turnen    (2019-12-27 13:12:29)
-Prompt and  appropriate feedback is given (High importance)
-For example, a confirmation message is shown following a successful transaction, input errors are promptly highlighted and it's made clear to users when a page has been updated.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B11" authorId="0">
       <text>
         <r>
@@ -265,6 +250,21 @@
 turnen    (2019-12-27 13:12:29)
 The current location is clearly indicated (e.g. breadcrumb, highlighted menu item) (Low importance)
 Users should always know where they are in the site or application.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B59" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAAACzJ2_gU
+turnen    (2019-12-27 13:12:29)
+Prompt and  appropriate feedback is given (High importance)
+For example, a confirmation message is shown following a successful transaction, input errors are promptly highlighted and it's made clear to users when a page has been updated.</t>
         </r>
       </text>
     </comment>
@@ -493,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="0">
+    <comment ref="B63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -501,10 +501,10 @@
             <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">======
-ID#AAAACzJ2_fY
+ID#AAAACzJ2_fo
 turnen    (2019-12-27 13:12:29)
-A clear and well structure site map or index is provided (where necessary) (Low importance)
-The sitemap might be part of the header or footer and should ideally be available from every page on the site.</t>
+Users can easily give feedback (Very low importance)
+For example, via email or an online feedback / contact us form. There should be an indication of how long users can expect to wait for a response if a query has been made.</t>
         </r>
       </text>
     </comment>
@@ -523,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B63" authorId="0">
+    <comment ref="B45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -531,10 +531,10 @@
             <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">======
-ID#AAAACzJ2_fo
+ID#AAAACzJ2_fY
 turnen    (2019-12-27 13:12:29)
-Users can easily give feedback (Very low importance)
-For example, via email or an online feedback / contact us form. There should be an indication of how long users can expect to wait for a response if a query has been made.</t>
+A clear and well structure site map or index is provided (where necessary) (Low importance)
+The sitemap might be part of the header or footer and should ideally be available from every page on the site.</t>
         </r>
       </text>
     </comment>
@@ -628,21 +628,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B79" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">======
-ID#AAAACzJ2_eg
-turnen    (2019-12-27 13:12:29)
-Errors are clear, easily identified and appear in appropriate locations (High importance)
-Errors should be immediately apparent to users and ideally be located close to the offending input or function (e.g. adjacent to an input entry field). Inputs causing an error should be highlighted, together with an explanation for the error.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B95" authorId="0">
       <text>
         <r>
@@ -658,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="0">
+    <comment ref="B79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -666,10 +651,10 @@
             <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">======
-ID#AAAACzJ2_ec
+ID#AAAACzJ2_eg
 turnen    (2019-12-27 13:12:29)
-Browser standard functions (e.g. 'back', 'forward', 'bookmark') are supported (High importance)
-Users should be able to bookmark a page (or be presented with a URL to use) and go back and forth without breaking the site or losing any information they have entered.</t>
+Errors are clear, easily identified and appear in appropriate locations (High importance)
+Errors should be immediately apparent to users and ideally be located close to the offending input or function (e.g. adjacent to an input entry field). Inputs causing an error should be highlighted, together with an explanation for the error.</t>
         </r>
       </text>
     </comment>
@@ -703,6 +688,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="B39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAAACzJ2_ec
+turnen    (2019-12-27 13:12:29)
+Browser standard functions (e.g. 'back', 'forward', 'bookmark') are supported (High importance)
+Users should be able to bookmark a page (or be presented with a URL to use) and go back and forth without breaking the site or losing any information they have entered.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B85" authorId="0">
       <text>
         <r>
@@ -723,7 +723,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t xml:space="preserve">Usability review (Español)</t>
   </si>
@@ -793,10 +793,19 @@
     <t xml:space="preserve">Las características y la funcionalidad son compatibles con los flujos de trabajo deseados por los usuarios.</t>
   </si>
   <si>
+    <t xml:space="preserve">Es una página que muestra los pasos de bastante lineal.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Las tareas de uso frecuente están fácilmente disponibles (por ejemplo, fácilmente accesibles desde la página de inicio) y están bien soportadas (por ejemplo, los accesos directos están disponibles).</t>
   </si>
   <si>
+    <t xml:space="preserve">Las tareas más frecuentes están en la parte superior de la página y todo el contenido "extra" que hay en la página principal puede distraer de estas opciones</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los usuarios reciben un apoyo adecuado según su nivel de experiencia (por ejemplo, atajos para usuarios expertos, ayuda e instrucciones para usuarios novatos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hay atajos para expertos y la página es bastante plana en la experiencia de usuario, siempre los mismos pasos en el mismo orden</t>
   </si>
   <si>
     <t xml:space="preserve">Las llamadas a las acciones (por ejemplo, registrarse, agregar a la cesta, enviar) son claras, están bien etiquetadas y aparecen como cliqueables.</t>
@@ -811,16 +820,28 @@
     <t xml:space="preserve">La página de inicio proporciona una instantánea clara y una descripción general del contenido, las características y la funcionalidad disponible.</t>
   </si>
   <si>
+    <t xml:space="preserve">La página principal tiene mucha información innecesaria</t>
+  </si>
+  <si>
     <t xml:space="preserve">La página de inicio es eficaz para orientar y dirigir a los usuarios a la información y las tareas deseadas.</t>
   </si>
   <si>
+    <t xml:space="preserve">Aunque lo primero que se ve son las funciones de reserva en los distintos ámbitos que maneja booking también se ve el inicio de un montón de artículos que pueden distraer al usuario</t>
+  </si>
+  <si>
     <t xml:space="preserve">El diseño de la página de inicio es clara y ordenada con suficiente "espacio en blanco".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El diseño es claro: parte superior opciones de reserva, parte inferior cosas de interés para el usuario, pero esta última seccion ocupa demasiado espacio sin dejar muchos "huecos"</t>
   </si>
   <si>
     <t>Navigation</t>
   </si>
   <si>
     <t xml:space="preserve">Los usuarios pueden acceder fácilmente al sitio o la aplicación (por ejemplo, la URL es predecible y es devuelta por los motores de búsqueda).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya pongas booking, booking.es o booking.com el buscador lleva siempre a la misma página</t>
   </si>
   <si>
     <t xml:space="preserve">El esquema de navegación (por ejemplo, el menú) es fácil de encontrar, intuitivo y consistente.</t>
@@ -844,6 +865,9 @@
     <t xml:space="preserve">La ubicación actual está claramente indicada (por ejemplo, ruta de navegación, elemento de menú resaltado).</t>
   </si>
   <si>
+    <t xml:space="preserve">Aparecen en el título de la pestaña un pequeño resumen de  lo que se está haciendo, aunque a veces se corta por ser muy largo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los usuarios pueden volver fácilmente a la página de inicio o a un punto de inicio relevante.</t>
   </si>
   <si>
@@ -865,7 +889,13 @@
     <t xml:space="preserve">La interfaz de búsqueda es adecuada para cumplir los objetivos del usuario (por ejemplo, parámetros múltiples, resultados priorizados, filtrado de resultados de búsqueda)</t>
   </si>
   <si>
+    <t xml:space="preserve">Si se tiene una cuenta en la página te recomiendan lugares que tengan algo que ver con los sitios en los que has estado anteriormente , si no tienes la cuenta te salen los más populares pero no relacionados con tus gustos</t>
+  </si>
+  <si>
     <t xml:space="preserve">El servicio de búsqueda se ocupa de las búsquedas comunes (por ejemplo, muestra la mayoría de resultados populares), faltas de ortografía y abreviaturas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por ejemplo la abreviatura MAD se traduce en Madrid</t>
   </si>
   <si>
     <t xml:space="preserve">Los resultados de búsqueda son relevantes, exhaustivos, precisos y se muestran bien</t>
@@ -878,7 +908,13 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Si se comete algún error aparece un mensaje, la respuesta a una operación exitosa es seguir con el proceso.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los usuarios pueden fácilmente deshacer, volver atrás y cambiar o cancelar acciones; o al menos tienen la oportunidad de confirmar una acción antes de cometer (por ejemplo, antes de realizar un pedido)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se pueden volver a editar los campos de las opciones en cualquier momento y antes de reservar está la confirmación de los datos personales y la tarjeta de crédito</t>
   </si>
   <si>
     <t xml:space="preserve">Los usuarios pueden enviar comentarios (por ejemplo, por correo electrónico o mediante un formulario de comentarios / contacto en línea)</t>
@@ -893,7 +929,7 @@
     <t xml:space="preserve">Los formularios y los procesos complejos se dividen en pasos y secciones fácilmente comprensibles. Cuando se utiliza un proceso, hay un indicador de progreso con números claros o etapas con nombre.</t>
   </si>
   <si>
-    <t xml:space="preserve">No hay indicador de procesos </t>
+    <t xml:space="preserve">No hay indicador de progreso</t>
   </si>
   <si>
     <t xml:space="preserve">Se solicita una cantidad mínima de información y, cuando se proporciona la justificación necesaria para solicitar información (por ejemplo, fecha de nacimiento, número de teléfono)</t>
@@ -929,6 +965,9 @@
     <t xml:space="preserve">Los errores de usuario comunes (por ejemplo, campos faltantes, formatos no válidos, selecciones no válidas) se han tenido en cuenta y, en la medida de lo posible, se han prevenido.</t>
   </si>
   <si>
+    <t xml:space="preserve">Por ejemplo no se puede poner una fecha que ya a pasado, ni que la llegada sea anterior a la ida.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los usuarios pueden recuperarse fácilmente (es decir, no tienen que comenzar de nuevo) de los errores</t>
   </si>
   <si>
@@ -947,7 +986,13 @@
     <t xml:space="preserve">El lenguaje, la terminología y el tono utilizados son apropiados y son fácilmente comprensibles para el público objetivo</t>
   </si>
   <si>
+    <t xml:space="preserve">Usan palabras cortas y de uso común  entendibles por todo el mundo, aunque en los hoteles se usan los préstamos ingleses "check-in"  y "check-out" que personas más mayores pueden no conocer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los términos, el idioma y el tono utilizados son consistentes (por ejemplo, el mismo término se usa en todo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En vez de buscar términos comunes para todas las funciones cada uno de los apartados tiene sus propios términos</t>
   </si>
   <si>
     <t xml:space="preserve">El texto y el contenido son legibles y escaneables, con buena tipografía y contraste visual</t>
@@ -965,10 +1010,19 @@
     <t xml:space="preserve">La ayuda en línea es concisa, fácil de leer y escrita en un lenguaje fácil de entender</t>
   </si>
   <si>
+    <t xml:space="preserve">No podememos saber este punto porque no podemos llegar a la información</t>
+  </si>
+  <si>
     <t xml:space="preserve">El acceso a la ayuda en línea no impide a los usuarios (es decir, pueden reanudar el trabajo donde lo dejaron después de acceder a la ayuda)</t>
   </si>
   <si>
+    <t xml:space="preserve"> En booking si entramos a cualquier proceso para regresar a nuestra búsqueda habría que usar la función de volver hacia atrás del navegador lo cual puede no ser intuitivo y como son formularios al volver a enviar la información puede haber un fallo y que se borre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los usuarios pueden obtener más ayuda fácilmente (por ejemplo, teléfono o dirección de correo electrónico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La ayuda es solo por correo electrónico y hay dos opciones: tener una cuenta en la página o enviar la solicitud con los datos de reserva</t>
   </si>
   <si>
     <t>Performance</t>
@@ -980,7 +1034,13 @@
     <t xml:space="preserve">Los errores y problemas de confiabilidad no inhiben la experiencia del usuario</t>
   </si>
   <si>
+    <t xml:space="preserve">No todo el mundo está dispuesto a pagar por adelantado y además por internet, y preferirían hacerlo en el momento de llegar al hotel o en el "chekin" del avión.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Se admiten posibles configuraciones de usuario (por ejemplo, navegadores, resoluciones, especificaciones de computadora)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booking funciona  en cualquier navegador, incluido en el del móvil, aunque en ese caso es más recomendable descargarse la aplicación</t>
   </si>
   <si>
     <t xml:space="preserve">Overall usability score (out of 100) *</t>
@@ -2141,7 +2201,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2338,7 +2398,6 @@
     </xf>
     <xf fontId="3" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="3" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="30" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="17" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3317,7 +3376,9 @@
         <v>#REF!</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="41"/>
+      <c r="I11" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="14">
         <v>5</v>
@@ -3374,11 +3435,11 @@
         <v>3</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="str">
@@ -3390,7 +3451,9 @@
         <v>#REF!</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="41"/>
+      <c r="I13" s="41" t="s">
+        <v>24</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="14">
         <v>4</v>
@@ -3401,11 +3464,11 @@
       </c>
       <c r="M13" s="1">
         <f>VLOOKUP(D13,Q1:R9,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" s="1">
         <f>M13*L13</f>
-        <v>4</v>
+        <v>3.2000000000000002</v>
       </c>
       <c r="O13" s="1">
         <f>IF(M13=0,0,L13*MAX(R2:R8))</f>
@@ -3443,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="40" t="s">
@@ -3459,7 +3522,9 @@
         <v>#REF!</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="41"/>
+      <c r="I15" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="47">
         <v>3</v>
@@ -3509,7 +3574,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="40" t="s">
@@ -3526,7 +3591,7 @@
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="14">
@@ -3571,7 +3636,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="34" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="44"/>
@@ -3609,11 +3674,11 @@
         <v>6</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="40" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="str">
@@ -3625,7 +3690,9 @@
         <v>#REF!</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="41"/>
+      <c r="I21" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="14">
         <v>3</v>
@@ -3636,11 +3703,11 @@
       </c>
       <c r="M21" s="1">
         <f>VLOOKUP(D21,Q1:R9,2,FALSE)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" s="1">
         <f>M21*L21</f>
-        <v>3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="O21" s="1">
         <f>IF(M21=0,0,L21*MAX(R2:R8))</f>
@@ -3673,11 +3740,11 @@
         <v>7</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="str">
@@ -3689,7 +3756,9 @@
         <v>#REF!</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="41"/>
+      <c r="I23" s="41" t="s">
+        <v>33</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="14">
         <v>4</v>
@@ -3700,11 +3769,11 @@
       </c>
       <c r="M23" s="1">
         <f>VLOOKUP(D23,Q1:R9,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" s="1">
         <f>M23*L23</f>
-        <v>4</v>
+        <v>3.2000000000000002</v>
       </c>
       <c r="O23" s="1">
         <f>IF(M23=0,0,L23*MAX(R2:R8))</f>
@@ -3738,7 +3807,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="40" t="s">
@@ -3748,7 +3817,9 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="41"/>
+      <c r="I25" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="J25" s="7"/>
       <c r="K25" s="14">
         <v>3</v>
@@ -3793,7 +3864,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="34" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="53"/>
@@ -3837,7 +3908,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="40" t="s">
@@ -3853,7 +3924,9 @@
         <v>#REF!</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="41"/>
+      <c r="I29" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="J29" s="7"/>
       <c r="K29" s="14">
         <v>2</v>
@@ -3905,7 +3978,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="40" t="s">
@@ -3922,7 +3995,7 @@
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="41" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="14">
@@ -3968,7 +4041,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="40" t="s">
@@ -4023,7 +4096,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="40" t="s">
@@ -4084,7 +4157,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="40" t="s">
@@ -4145,7 +4218,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="40" t="s">
@@ -4213,11 +4286,11 @@
         <v>15</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7" t="str">
@@ -4229,7 +4302,9 @@
         <v>#REF!</v>
       </c>
       <c r="H41" s="7"/>
-      <c r="I41" s="41"/>
+      <c r="I41" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="J41" s="7"/>
       <c r="K41" s="14">
         <v>2</v>
@@ -4240,11 +4315,11 @@
       </c>
       <c r="M41" s="1">
         <f>VLOOKUP(D41,Q1:R9,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" s="1">
         <f>M41*L41</f>
-        <v>2</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="O41" s="1">
         <f>IF(M41=0,0,L41*MAX(R2:R8))</f>
@@ -4274,7 +4349,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="40" t="s">
@@ -4291,7 +4366,7 @@
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="41" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="14">
@@ -4337,7 +4412,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="40" t="s">
@@ -4393,7 +4468,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="34" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="53"/>
@@ -4431,7 +4506,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="40" t="s">
@@ -4448,7 +4523,7 @@
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="41" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="14">
@@ -4494,11 +4569,11 @@
         <v>19</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="40" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7" t="str">
@@ -4510,7 +4585,9 @@
         <v>#REF!</v>
       </c>
       <c r="H51" s="7"/>
-      <c r="I51" s="41"/>
+      <c r="I51" s="41" t="s">
+        <v>54</v>
+      </c>
       <c r="J51" s="7"/>
       <c r="K51" s="14">
         <v>4</v>
@@ -4521,11 +4598,11 @@
       </c>
       <c r="M51" s="1">
         <f>VLOOKUP(D51,Q1:R9,2,FALSE)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N51" s="1">
         <f>M51*L51</f>
-        <v>4</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="O51" s="1">
         <f>IF(M51=0,0,L51*MAX(R2:R8))</f>
@@ -4555,7 +4632,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="40" t="s">
@@ -4571,7 +4648,9 @@
         <v>#REF!</v>
       </c>
       <c r="H53" s="7"/>
-      <c r="I53" s="41"/>
+      <c r="I53" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="J53" s="7"/>
       <c r="K53" s="14">
         <v>2</v>
@@ -4616,11 +4695,11 @@
         <v>21</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7" t="str">
@@ -4643,11 +4722,11 @@
       </c>
       <c r="M55" s="1">
         <f>VLOOKUP(D55,Q1:R9,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N55" s="1">
         <f>M55*L55</f>
-        <v>4</v>
+        <v>3.2000000000000002</v>
       </c>
       <c r="O55" s="1">
         <f>IF(M55=0,0,L55*MAX(R2:R8))</f>
@@ -4672,7 +4751,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="34" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C57" s="36"/>
       <c r="D57" s="53"/>
@@ -4710,7 +4789,7 @@
         <v>22</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="40" t="s">
@@ -4726,7 +4805,9 @@
         <v>#REF!</v>
       </c>
       <c r="H59" s="7"/>
-      <c r="I59" s="41"/>
+      <c r="I59" s="41" t="s">
+        <v>60</v>
+      </c>
       <c r="J59" s="7"/>
       <c r="K59" s="14">
         <v>4</v>
@@ -4771,7 +4852,7 @@
         <v>23</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="40" t="s">
@@ -4787,7 +4868,9 @@
         <v>#REF!</v>
       </c>
       <c r="H61" s="7"/>
-      <c r="I61" s="41"/>
+      <c r="I61" s="41" t="s">
+        <v>62</v>
+      </c>
       <c r="J61" s="7"/>
       <c r="K61" s="14">
         <v>3</v>
@@ -4832,7 +4915,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="40" t="s">
@@ -4849,7 +4932,7 @@
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="41" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="J63" s="7"/>
       <c r="K63" s="14">
@@ -4890,7 +4973,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="34" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C65" s="36"/>
       <c r="D65" s="53"/>
@@ -4928,7 +5011,7 @@
         <v>25</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="40" t="s">
@@ -4945,7 +5028,7 @@
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="41" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="14">
@@ -4991,7 +5074,7 @@
         <v>26</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="40" t="s">
@@ -5052,7 +5135,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="40" t="s">
@@ -5069,7 +5152,7 @@
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="41" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="14">
@@ -5115,7 +5198,7 @@
         <v>28</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="40" t="s">
@@ -5176,7 +5259,7 @@
         <v>29</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="40" t="s">
@@ -5193,7 +5276,7 @@
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="41" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J75" s="7"/>
       <c r="K75" s="14">
@@ -5234,7 +5317,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="34" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C77" s="36"/>
       <c r="D77" s="53"/>
@@ -5272,7 +5355,7 @@
         <v>30</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="40" t="s">
@@ -5289,7 +5372,7 @@
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="41" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="14">
@@ -5335,7 +5418,7 @@
         <v>31</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="40" t="s">
@@ -5396,7 +5479,7 @@
         <v>32</v>
       </c>
       <c r="B83" s="39" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="40" t="s">
@@ -5412,7 +5495,9 @@
         <v>#REF!</v>
       </c>
       <c r="H83" s="7"/>
-      <c r="I83" s="41"/>
+      <c r="I83" s="41" t="s">
+        <v>79</v>
+      </c>
       <c r="J83" s="7"/>
       <c r="K83" s="14">
         <v>3</v>
@@ -5457,7 +5542,7 @@
         <v>33</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="40" t="s">
@@ -5513,7 +5598,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="34" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C87" s="36"/>
       <c r="D87" s="53"/>
@@ -5551,7 +5636,7 @@
         <v>34</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="40" t="s">
@@ -5568,7 +5653,7 @@
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="41" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="14">
@@ -5614,7 +5699,7 @@
         <v>35</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="40" t="s">
@@ -5675,11 +5760,11 @@
         <v>36</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7" t="str">
@@ -5691,7 +5776,9 @@
         <v>#REF!</v>
       </c>
       <c r="H93" s="7"/>
-      <c r="I93" s="41"/>
+      <c r="I93" s="41" t="s">
+        <v>86</v>
+      </c>
       <c r="J93" s="7"/>
       <c r="K93" s="14">
         <v>4</v>
@@ -5702,11 +5789,11 @@
       </c>
       <c r="M93" s="1">
         <f>VLOOKUP(D93,Q1:R9,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N93" s="1">
         <f>M93*L93</f>
-        <v>4</v>
+        <v>3.2000000000000002</v>
       </c>
       <c r="O93" s="1">
         <f>IF(M93=0,0,L93*MAX(R2:R8))</f>
@@ -5736,11 +5823,11 @@
         <v>37</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7" t="str">
@@ -5752,7 +5839,9 @@
         <v>#REF!</v>
       </c>
       <c r="H95" s="7"/>
-      <c r="I95" s="41"/>
+      <c r="I95" s="41" t="s">
+        <v>88</v>
+      </c>
       <c r="J95" s="7"/>
       <c r="K95" s="14">
         <v>3</v>
@@ -5763,11 +5852,11 @@
       </c>
       <c r="M95" s="1">
         <f>VLOOKUP(D95,Q1:R9,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N95" s="1">
         <f>M95*L95</f>
-        <v>3</v>
+        <v>2.3999999999999999</v>
       </c>
       <c r="O95" s="1">
         <f>IF(M95=0,0,L95*MAX(R2:R8))</f>
@@ -5797,7 +5886,7 @@
         <v>38</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="40" t="s">
@@ -5814,7 +5903,7 @@
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="41" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J97" s="7"/>
       <c r="K97" s="14">
@@ -5855,7 +5944,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="34" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C99" s="36"/>
       <c r="D99" s="53"/>
@@ -5893,7 +5982,7 @@
         <v>39</v>
       </c>
       <c r="B101" s="39" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="40" t="s">
@@ -5954,7 +6043,7 @@
         <v>40</v>
       </c>
       <c r="B103" s="39" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="40" t="s">
@@ -5970,7 +6059,9 @@
         <v>#REF!</v>
       </c>
       <c r="H103" s="7"/>
-      <c r="I103" s="41"/>
+      <c r="I103" s="41" t="s">
+        <v>94</v>
+      </c>
       <c r="J103" s="7"/>
       <c r="K103" s="14">
         <v>3</v>
@@ -6015,11 +6106,11 @@
         <v>41</v>
       </c>
       <c r="B105" s="39" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="40" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7" t="str">
@@ -6031,7 +6122,9 @@
         <v>#REF!</v>
       </c>
       <c r="H105" s="7"/>
-      <c r="I105" s="41"/>
+      <c r="I105" s="41" t="s">
+        <v>96</v>
+      </c>
       <c r="J105" s="7"/>
       <c r="K105" s="14">
         <v>3</v>
@@ -6042,11 +6135,11 @@
       </c>
       <c r="M105" s="1">
         <f>VLOOKUP(D105,Q1:R9,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N105" s="1">
         <f>M105*L105</f>
-        <v>0.59999999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="O105" s="1">
         <f>IF(M105=0,0,L105*MAX(R2:R8))</f>
@@ -6076,7 +6169,7 @@
         <v>42</v>
       </c>
       <c r="B107" s="39" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="40" t="s">
@@ -6092,7 +6185,9 @@
         <v>#REF!</v>
       </c>
       <c r="H107" s="7"/>
-      <c r="I107" s="41"/>
+      <c r="I107" s="41" t="s">
+        <v>98</v>
+      </c>
       <c r="J107" s="7"/>
       <c r="K107" s="14">
         <v>2</v>
@@ -6132,7 +6227,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="34" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C109" s="36"/>
       <c r="D109" s="53"/>
@@ -6170,7 +6265,7 @@
         <v>43</v>
       </c>
       <c r="B111" s="39" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C111" s="21"/>
       <c r="D111" s="40" t="s">
@@ -6253,11 +6348,11 @@
         <v>44</v>
       </c>
       <c r="B113" s="39" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C113" s="21"/>
       <c r="D113" s="58" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E113" s="21"/>
       <c r="F113" s="21" t="str">
@@ -6269,7 +6364,9 @@
         <v>#REF!</v>
       </c>
       <c r="H113" s="21"/>
-      <c r="I113" s="41"/>
+      <c r="I113" s="41" t="s">
+        <v>102</v>
+      </c>
       <c r="J113" s="21"/>
       <c r="K113" s="31">
         <v>4</v>
@@ -6280,15 +6377,15 @@
       </c>
       <c r="M113" s="56">
         <f>VLOOKUP(D113,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N113" s="56">
         <f>M113*L113</f>
-        <v>0</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="O113" s="56">
         <f>IF(M113=0,0,L113*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P113" s="21"/>
       <c r="Q113" s="21"/>
@@ -6336,11 +6433,11 @@
         <v>45</v>
       </c>
       <c r="B115" s="39" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C115" s="21"/>
       <c r="D115" s="40" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E115" s="21"/>
       <c r="F115" s="21" t="str">
@@ -6352,7 +6449,9 @@
         <v>#REF!</v>
       </c>
       <c r="H115" s="21"/>
-      <c r="I115" s="41"/>
+      <c r="I115" s="41" t="s">
+        <v>104</v>
+      </c>
       <c r="J115" s="21"/>
       <c r="K115" s="31">
         <v>3</v>
@@ -6363,11 +6462,11 @@
       </c>
       <c r="M115" s="56">
         <f>VLOOKUP(D115,Q1:R9,2,FALSE)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N115" s="56">
         <f>M115*L115</f>
-        <v>0.59999999999999998</v>
+        <v>3</v>
       </c>
       <c r="O115" s="56">
         <f>IF(M115=0,0,L115*MAX(R2:R8))</f>
@@ -6403,13 +6502,13 @@
     </row>
     <row r="117" ht="24" customHeight="1">
       <c r="A117" s="62" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B117" s="63"/>
       <c r="C117" s="64"/>
       <c r="D117" s="65">
         <f>IF(ISERR((N117/O117)*100),"",(N117/O117)*100)</f>
-        <v>82.043795620437947</v>
+        <v>78.014184397163135</v>
       </c>
       <c r="E117" s="66"/>
       <c r="F117" s="66"/>
@@ -6424,7 +6523,7 @@
       </c>
       <c r="J117" s="8">
         <f>IF(D117="",0,D117)</f>
-        <v>82.043795620437947</v>
+        <v>78.014184397163135</v>
       </c>
       <c r="K117" s="60">
         <f>MAX(K9:K115)</f>
@@ -6434,11 +6533,11 @@
       <c r="M117" s="60"/>
       <c r="N117" s="61">
         <f t="shared" ref="N117:O117" si="0">SUM(N9:N115)</f>
-        <v>112.39999999999999</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="O117" s="61">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" ht="13.5" customHeight="1">
@@ -6535,13 +6634,13 @@
       <c r="M124" s="1"/>
     </row>
     <row r="125" ht="13.5" customHeight="1">
-      <c r="B125" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C125" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="D125" s="80"/>
+      <c r="B125" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D125" s="79"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
@@ -6554,17 +6653,17 @@
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="7"/>
-      <c r="B126" s="81"/>
-      <c r="C126" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="D126" s="83"/>
-      <c r="E126" s="83"/>
-      <c r="F126" s="83"/>
-      <c r="G126" s="83"/>
-      <c r="H126" s="83"/>
-      <c r="I126" s="83"/>
-      <c r="J126" s="84"/>
+      <c r="B126" s="80"/>
+      <c r="C126" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="D126" s="82"/>
+      <c r="E126" s="82"/>
+      <c r="F126" s="82"/>
+      <c r="G126" s="82"/>
+      <c r="H126" s="82"/>
+      <c r="I126" s="82"/>
+      <c r="J126" s="83"/>
       <c r="K126" s="14"/>
       <c r="L126" s="14"/>
       <c r="M126" s="1"/>
@@ -17086,7 +17185,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{000B00D2-0055-4BEA-BEDA-005A004D00F1}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00DB00AC-000C-44D7-95EE-003600A800D4}">
             <xm:f>"Enter score"</xm:f>
             <x14:dxf>
               <font/>
@@ -17127,19 +17226,19 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00F200B7-0089-4E28-96C7-00BE00700074}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt=" - " showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00FD0094-0071-4449-AF90-00E400320031}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt=" - " showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$Q$1:$Q$8</xm:f>
           </x14:formula1>
           <xm:sqref>D18 D54 D74 D96</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004B007E-00E7-4290-ACBF-00DD009A0048}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Invalid score entered - Score must be one of:&#10;&#10;Very poor&#10;Poor&#10;Moderate&#10;Good&#10;Excellent&#10;N/A" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00CF007E-0043-42B6-9B03-006C006400F6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Invalid score entered - Score must be one of:&#10;&#10;Very poor&#10;Poor&#10;Moderate&#10;Good&#10;Excellent&#10;N/A" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$Q$1:$Q$8</xm:f>
           </x14:formula1>
           <xm:sqref>D24 D32</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00380081-0077-4947-983A-00B2006300B6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Invalid score entered - Score must be one of:&#10;&#10;Very poor&#10;Poor&#10;Moderate&#10;Good&#10;Excellent&#10;N/A" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D50000-006B-4101-9234-00CD00D700F1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Invalid score entered - Score must be one of:&#10;&#10;Very poor&#10;Poor&#10;Moderate&#10;Good&#10;Excellent&#10;N/A" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$Q$1:$Q$7</xm:f>
           </x14:formula1>
@@ -17182,7 +17281,7 @@
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -17239,7 +17338,7 @@
     </row>
     <row r="3" ht="24" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="20" t="s">
@@ -17417,7 +17516,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="40" t="s">
@@ -17492,7 +17591,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="40" t="s">
@@ -17565,7 +17664,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="40" t="s">
@@ -17634,7 +17733,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="40" t="s">
@@ -17700,7 +17799,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="40" t="s">
@@ -17741,7 +17840,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" ht="12" customHeight="1">
-      <c r="B18" s="85"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="7"/>
       <c r="D18" s="44"/>
       <c r="E18" s="7"/>
@@ -17760,7 +17859,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="34" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="44"/>
@@ -17798,7 +17897,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="40" t="s">
@@ -17862,7 +17961,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="40" t="s">
@@ -17927,7 +18026,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="40" t="s">
@@ -17982,7 +18081,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="34" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="53"/>
@@ -18026,7 +18125,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="40" t="s">
@@ -18094,7 +18193,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="40" t="s">
@@ -18155,7 +18254,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="40" t="s">
@@ -18210,7 +18309,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="40" t="s">
@@ -18271,7 +18370,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="40" t="s">
@@ -18332,7 +18431,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="40" t="s">
@@ -18400,7 +18499,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="40" t="s">
@@ -18461,7 +18560,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="40" t="s">
@@ -18522,7 +18621,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="40" t="s">
@@ -18578,7 +18677,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="34" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="53"/>
@@ -18616,7 +18715,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="40" t="s">
@@ -18677,7 +18776,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="40" t="s">
@@ -18738,7 +18837,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="40" t="s">
@@ -18799,7 +18898,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="40" t="s">
@@ -18855,7 +18954,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="34" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C57" s="36"/>
       <c r="D57" s="53"/>
@@ -18893,7 +18992,7 @@
         <v>22</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="40" t="s">
@@ -18954,7 +19053,7 @@
         <v>23</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="40" t="s">
@@ -19015,7 +19114,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="40" t="s">
@@ -19071,7 +19170,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="34" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C65" s="36"/>
       <c r="D65" s="53"/>
@@ -19109,7 +19208,7 @@
         <v>25</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="40" t="s">
@@ -19170,7 +19269,7 @@
         <v>26</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="40" t="s">
@@ -19231,7 +19330,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="40" t="s">
@@ -19292,7 +19391,7 @@
         <v>28</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="40" t="s">
@@ -19353,7 +19452,7 @@
         <v>29</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="40" t="s">
@@ -19409,7 +19508,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="34" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C77" s="36"/>
       <c r="D77" s="53"/>
@@ -19447,7 +19546,7 @@
         <v>30</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="40" t="s">
@@ -19508,7 +19607,7 @@
         <v>31</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="40" t="s">
@@ -19569,7 +19668,7 @@
         <v>32</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="40" t="s">
@@ -19630,7 +19729,7 @@
         <v>33</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="40" t="s">
@@ -19686,7 +19785,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="34" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C87" s="36"/>
       <c r="D87" s="53"/>
@@ -19724,7 +19823,7 @@
         <v>34</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="40" t="s">
@@ -19785,7 +19884,7 @@
         <v>35</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="40" t="s">
@@ -19846,7 +19945,7 @@
         <v>36</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="40" t="s">
@@ -19907,7 +20006,7 @@
         <v>37</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="40" t="s">
@@ -19968,7 +20067,7 @@
         <v>38</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="40" t="s">
@@ -20024,7 +20123,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="34" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C99" s="36"/>
       <c r="D99" s="53"/>
@@ -20062,7 +20161,7 @@
         <v>39</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="40" t="s">
@@ -20123,7 +20222,7 @@
         <v>40</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="40" t="s">
@@ -20184,7 +20283,7 @@
         <v>41</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="40" t="s">
@@ -20245,7 +20344,7 @@
         <v>42</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="40" t="s">
@@ -20301,7 +20400,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="34" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C109" s="36"/>
       <c r="D109" s="53"/>
@@ -20339,7 +20438,7 @@
         <v>43</v>
       </c>
       <c r="B111" s="43" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C111" s="21"/>
       <c r="D111" s="40" t="s">
@@ -20422,7 +20521,7 @@
         <v>44</v>
       </c>
       <c r="B113" s="43" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C113" s="21"/>
       <c r="D113" s="40" t="s">
@@ -20505,7 +20604,7 @@
         <v>45</v>
       </c>
       <c r="B115" s="43" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C115" s="21"/>
       <c r="D115" s="40" t="s">
@@ -20572,7 +20671,7 @@
     </row>
     <row r="117" ht="24" customHeight="1">
       <c r="A117" s="62" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B117" s="63"/>
       <c r="C117" s="64"/>
@@ -20704,7 +20803,7 @@
       <c r="M124" s="1"/>
     </row>
     <row r="125" ht="13.5" customHeight="1">
-      <c r="D125" s="80"/>
+      <c r="D125" s="79"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
@@ -20717,15 +20816,15 @@
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="7"/>
-      <c r="B126" s="81"/>
-      <c r="C126" s="83"/>
-      <c r="D126" s="83"/>
-      <c r="E126" s="83"/>
-      <c r="F126" s="83"/>
-      <c r="G126" s="83"/>
-      <c r="H126" s="83"/>
-      <c r="I126" s="83"/>
-      <c r="J126" s="84"/>
+      <c r="B126" s="80"/>
+      <c r="C126" s="82"/>
+      <c r="D126" s="82"/>
+      <c r="E126" s="82"/>
+      <c r="F126" s="82"/>
+      <c r="G126" s="82"/>
+      <c r="H126" s="82"/>
+      <c r="I126" s="82"/>
+      <c r="J126" s="83"/>
       <c r="K126" s="14"/>
       <c r="L126" s="14"/>
       <c r="M126" s="1"/>
@@ -31243,7 +31342,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00A500BA-00D9-4331-9901-000700DC00C4}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{007400C6-00B7-4B43-9B9D-000B00370013}">
             <xm:f>"Enter score"</xm:f>
             <x14:dxf>
               <font/>
@@ -31284,19 +31383,19 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00490063-0058-4A01-8992-00A100780049}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt=" - " showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00110030-0052-481B-8405-00BE00AA00E9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt=" - " showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$Q$1:$Q$8</xm:f>
           </x14:formula1>
           <xm:sqref>D18 D54 D74 D96</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DE00CE-0041-4228-9D77-00C3004100F2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Invalid score entered - Score must be one of:&#10;&#10;Very poor&#10;Poor&#10;Moderate&#10;Good&#10;Excellent&#10;N/A" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D1003C-0089-47DF-A41E-000B009C00B7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Invalid score entered - Score must be one of:&#10;&#10;Very poor&#10;Poor&#10;Moderate&#10;Good&#10;Excellent&#10;N/A" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$Q$1:$Q$8</xm:f>
           </x14:formula1>
           <xm:sqref>D24 D32</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BC0023-0058-42F8-9093-00D7008000A4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Invalid score entered - Score must be one of:&#10;&#10;Very poor&#10;Poor&#10;Moderate&#10;Good&#10;Excellent&#10;N/A" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00870037-00BC-4C74-B729-00BB00090060}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Invalid score entered - Score must be one of:&#10;&#10;Very poor&#10;Poor&#10;Moderate&#10;Good&#10;Excellent&#10;N/A" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$Q$1:$Q$7</xm:f>
           </x14:formula1>
@@ -31329,7 +31428,7 @@
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -31337,11 +31436,11 @@
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="59"/>
       <c r="C2" s="34" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" ht="24.75" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="85" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="21"/>
@@ -31371,62 +31470,62 @@
       <c r="Z3" s="21"/>
     </row>
     <row r="4" ht="51" customHeight="1">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>1</v>
       </c>
-      <c r="B4" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>139</v>
+      <c r="B4" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5" ht="38.25" customHeight="1">
-      <c r="A5" s="87">
+      <c r="A5" s="86">
         <f t="shared" ref="A5:A8" si="2">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>139</v>
+      <c r="B5" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="6" ht="38.25" customHeight="1">
-      <c r="A6" s="87">
+      <c r="A6" s="86">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B6" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>142</v>
+      <c r="B6" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="7" ht="38.25" customHeight="1">
-      <c r="A7" s="87">
+      <c r="A7" s="86">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B7" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>144</v>
+      <c r="B7" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" ht="38.25" customHeight="1">
-      <c r="A8" s="87">
+      <c r="A8" s="86">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B8" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="89" t="s">
-        <v>144</v>
+      <c r="B8" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -31434,8 +31533,8 @@
       <c r="C9" s="21"/>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="A10" s="86" t="s">
-        <v>26</v>
+      <c r="A10" s="85" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -31464,39 +31563,39 @@
       <c r="Z10" s="21"/>
     </row>
     <row r="11" ht="38.25" customHeight="1">
-      <c r="A11" s="87">
+      <c r="A11" s="86">
         <f>A8+1</f>
         <v>6</v>
       </c>
-      <c r="B11" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>144</v>
+      <c r="B11" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" ht="51" customHeight="1">
-      <c r="A12" s="87">
+      <c r="A12" s="86">
         <f t="shared" ref="A12:A13" si="3">A11+1</f>
         <v>7</v>
       </c>
-      <c r="B12" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="89" t="s">
-        <v>142</v>
+      <c r="B12" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="13" ht="38.25" customHeight="1">
-      <c r="A13" s="87">
+      <c r="A13" s="86">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B13" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="89" t="s">
-        <v>144</v>
+      <c r="B13" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -31504,8 +31603,8 @@
       <c r="C14" s="21"/>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="A15" s="86" t="s">
-        <v>30</v>
+      <c r="A15" s="85" t="s">
+        <v>36</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -31534,111 +31633,111 @@
       <c r="Z15" s="21"/>
     </row>
     <row r="16" ht="38.25" customHeight="1">
-      <c r="A16" s="87">
+      <c r="A16" s="86">
         <f>A13+1</f>
         <v>9</v>
       </c>
-      <c r="B16" s="88" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="89" t="s">
-        <v>150</v>
+      <c r="B16" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1">
-      <c r="A17" s="87">
+      <c r="A17" s="86">
         <f t="shared" ref="A17:A24" si="4">A16+1</f>
         <v>10</v>
       </c>
-      <c r="B17" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="89" t="s">
-        <v>142</v>
+      <c r="B17" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="18" ht="38.25" customHeight="1">
-      <c r="A18" s="87">
+      <c r="A18" s="86">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B18" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="89" t="s">
-        <v>144</v>
+      <c r="B18" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="19" ht="51" customHeight="1">
-      <c r="A19" s="87">
+      <c r="A19" s="86">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B19" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="89" t="s">
-        <v>139</v>
+      <c r="B19" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="20" ht="51" customHeight="1">
-      <c r="A20" s="87">
+      <c r="A20" s="86">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B20" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="89" t="s">
-        <v>144</v>
+      <c r="B20" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" ht="38.25" customHeight="1">
-      <c r="A21" s="87">
+      <c r="A21" s="86">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B21" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="89" t="s">
-        <v>142</v>
+      <c r="B21" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="87">
+      <c r="A22" s="86">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B22" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="89" t="s">
-        <v>150</v>
+      <c r="B22" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
-      <c r="A23" s="87">
+      <c r="A23" s="86">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B23" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="89" t="s">
-        <v>150</v>
+      <c r="B23" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="A24" s="87">
+      <c r="A24" s="86">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B24" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="89" t="s">
-        <v>159</v>
+      <c r="B24" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -31646,8 +31745,8 @@
       <c r="C25" s="21"/>
     </row>
     <row r="26" ht="24.75" customHeight="1">
-      <c r="A26" s="86" t="s">
-        <v>42</v>
+      <c r="A26" s="85" t="s">
+        <v>50</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -31676,51 +31775,51 @@
       <c r="Z26" s="21"/>
     </row>
     <row r="27" ht="38.25" customHeight="1">
-      <c r="A27" s="87">
+      <c r="A27" s="86">
         <f>A24+1</f>
         <v>18</v>
       </c>
-      <c r="B27" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="89" t="s">
-        <v>142</v>
+      <c r="B27" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="88" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="28" ht="38.25" customHeight="1">
-      <c r="A28" s="87">
+      <c r="A28" s="86">
         <f t="shared" ref="A28:A30" si="5">A27+1</f>
         <v>19</v>
       </c>
-      <c r="B28" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="89" t="s">
-        <v>142</v>
+      <c r="B28" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="88" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="29" ht="51" customHeight="1">
-      <c r="A29" s="87">
+      <c r="A29" s="86">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B29" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="89" t="s">
-        <v>150</v>
+      <c r="B29" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="88" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="30" ht="38.25" customHeight="1">
-      <c r="A30" s="87">
+      <c r="A30" s="86">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B30" s="88" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30" s="89" t="s">
-        <v>142</v>
+      <c r="B30" s="87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -31728,8 +31827,8 @@
       <c r="C31" s="21"/>
     </row>
     <row r="32" ht="24.75" customHeight="1">
-      <c r="A32" s="86" t="s">
-        <v>48</v>
+      <c r="A32" s="85" t="s">
+        <v>58</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -31758,39 +31857,39 @@
       <c r="Z32" s="21"/>
     </row>
     <row r="33" ht="38.25" customHeight="1">
-      <c r="A33" s="87">
+      <c r="A33" s="86">
         <f>A30+1</f>
         <v>22</v>
       </c>
-      <c r="B33" s="88" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="89" t="s">
-        <v>142</v>
+      <c r="B33" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="88" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="34" ht="51" customHeight="1">
-      <c r="A34" s="87">
+      <c r="A34" s="86">
         <f t="shared" ref="A34:A35" si="6">A33+1</f>
         <v>23</v>
       </c>
-      <c r="B34" s="88" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="89" t="s">
-        <v>144</v>
+      <c r="B34" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="35" ht="38.25" customHeight="1">
-      <c r="A35" s="87">
+      <c r="A35" s="86">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="B35" s="88" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" s="89" t="s">
-        <v>159</v>
+      <c r="B35" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="88" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -31798,8 +31897,8 @@
       <c r="C36" s="21"/>
     </row>
     <row r="37" ht="24.75" customHeight="1">
-      <c r="A37" s="86" t="s">
-        <v>53</v>
+      <c r="A37" s="85" t="s">
+        <v>65</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -31828,63 +31927,63 @@
       <c r="Z37" s="21"/>
     </row>
     <row r="38" ht="38.25" customHeight="1">
-      <c r="A38" s="87">
+      <c r="A38" s="86">
         <f>A35+1</f>
         <v>25</v>
       </c>
-      <c r="B38" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="89" t="s">
-        <v>144</v>
+      <c r="B38" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39" ht="63.75" customHeight="1">
-      <c r="A39" s="87">
+      <c r="A39" s="86">
         <f t="shared" ref="A39:A42" si="7">A38+1</f>
         <v>26</v>
       </c>
-      <c r="B39" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="89" t="s">
-        <v>150</v>
+      <c r="B39" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="88" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="40" ht="38.25" customHeight="1">
-      <c r="A40" s="87">
+      <c r="A40" s="86">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="B40" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="89" t="s">
-        <v>150</v>
+      <c r="B40" s="87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" s="88" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="41" ht="63.75" customHeight="1">
-      <c r="A41" s="87">
+      <c r="A41" s="86">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="B41" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="89" t="s">
-        <v>144</v>
+      <c r="B41" s="87" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="42" ht="38.25" customHeight="1">
-      <c r="A42" s="87">
+      <c r="A42" s="86">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="B42" s="88" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="89" t="s">
-        <v>144</v>
+      <c r="B42" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -31892,8 +31991,8 @@
       <c r="C43" s="21"/>
     </row>
     <row r="44" ht="24.75" customHeight="1">
-      <c r="A44" s="86" t="s">
-        <v>62</v>
+      <c r="A44" s="85" t="s">
+        <v>74</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -31922,51 +32021,51 @@
       <c r="Z44" s="21"/>
     </row>
     <row r="45" ht="38.25" customHeight="1">
-      <c r="A45" s="87">
+      <c r="A45" s="86">
         <f>A42+1</f>
         <v>30</v>
       </c>
-      <c r="B45" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="89" t="s">
-        <v>142</v>
+      <c r="B45" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="88" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="46" ht="38.25" customHeight="1">
-      <c r="A46" s="87">
+      <c r="A46" s="86">
         <f t="shared" ref="A46:A48" si="8">A45+1</f>
         <v>31</v>
       </c>
-      <c r="B46" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="C46" s="89" t="s">
-        <v>144</v>
+      <c r="B46" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="47" ht="51" customHeight="1">
-      <c r="A47" s="87">
+      <c r="A47" s="86">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="B47" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="C47" s="89" t="s">
-        <v>144</v>
+      <c r="B47" s="87" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
-      <c r="A48" s="87">
+      <c r="A48" s="86">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="B48" s="88" t="s">
-        <v>175</v>
-      </c>
-      <c r="C48" s="89" t="s">
-        <v>144</v>
+      <c r="B48" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -31974,8 +32073,8 @@
       <c r="C49" s="21"/>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="A50" s="86" t="s">
-        <v>68</v>
+      <c r="A50" s="85" t="s">
+        <v>81</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -32004,63 +32103,63 @@
       <c r="Z50" s="21"/>
     </row>
     <row r="51" ht="51" customHeight="1">
-      <c r="A51" s="87">
+      <c r="A51" s="86">
         <f>A48+1</f>
         <v>34</v>
       </c>
-      <c r="B51" s="88" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" s="89" t="s">
-        <v>139</v>
+      <c r="B51" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="88" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="52" ht="38.25" customHeight="1">
-      <c r="A52" s="87">
+      <c r="A52" s="86">
         <f t="shared" ref="A52:A55" si="9">A51+1</f>
         <v>35</v>
       </c>
-      <c r="B52" s="88" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="89" t="s">
-        <v>150</v>
+      <c r="B52" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="88" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
-      <c r="A53" s="87">
+      <c r="A53" s="86">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="B53" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="C53" s="89" t="s">
-        <v>142</v>
+      <c r="B53" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="88" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="54" ht="38.25" customHeight="1">
-      <c r="A54" s="87">
+      <c r="A54" s="86">
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="B54" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="C54" s="89" t="s">
-        <v>144</v>
+      <c r="B54" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
-      <c r="A55" s="87">
+      <c r="A55" s="86">
         <f t="shared" si="9"/>
         <v>38</v>
       </c>
-      <c r="B55" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" s="89" t="s">
-        <v>144</v>
+      <c r="B55" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -32068,8 +32167,8 @@
       <c r="C56" s="21"/>
     </row>
     <row r="57" ht="24.75" customHeight="1">
-      <c r="A57" s="86" t="s">
-        <v>76</v>
+      <c r="A57" s="85" t="s">
+        <v>91</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -32098,51 +32197,51 @@
       <c r="Z57" s="21"/>
     </row>
     <row r="58" ht="51" customHeight="1">
-      <c r="A58" s="87">
+      <c r="A58" s="86">
         <f>A55+1</f>
         <v>39</v>
       </c>
-      <c r="B58" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="C58" s="89" t="s">
-        <v>142</v>
+      <c r="B58" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="88" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="59" ht="38.25" customHeight="1">
-      <c r="A59" s="87">
+      <c r="A59" s="86">
         <f t="shared" ref="A59:A61" si="10">A58+1</f>
         <v>40</v>
       </c>
-      <c r="B59" s="88" t="s">
-        <v>182</v>
-      </c>
-      <c r="C59" s="89" t="s">
-        <v>144</v>
+      <c r="B59" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="C59" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="60" ht="51" customHeight="1">
-      <c r="A60" s="87">
+      <c r="A60" s="86">
         <f t="shared" si="10"/>
         <v>41</v>
       </c>
-      <c r="B60" s="88" t="s">
-        <v>183</v>
-      </c>
-      <c r="C60" s="89" t="s">
-        <v>144</v>
+      <c r="B60" s="87" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="61" ht="38.25" customHeight="1">
-      <c r="A61" s="87">
+      <c r="A61" s="86">
         <f t="shared" si="10"/>
         <v>42</v>
       </c>
-      <c r="B61" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61" s="89" t="s">
-        <v>150</v>
+      <c r="B61" s="87" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="88" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
@@ -32150,8 +32249,8 @@
       <c r="C62" s="21"/>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="A63" s="86" t="s">
-        <v>81</v>
+      <c r="A63" s="85" t="s">
+        <v>99</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -32180,39 +32279,39 @@
       <c r="Z63" s="21"/>
     </row>
     <row r="64" ht="51" customHeight="1">
-      <c r="A64" s="87">
+      <c r="A64" s="86">
         <f>A61+1</f>
         <v>43</v>
       </c>
-      <c r="B64" s="88" t="s">
-        <v>185</v>
-      </c>
-      <c r="C64" s="89" t="s">
-        <v>142</v>
+      <c r="B64" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="88" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
-      <c r="A65" s="87">
+      <c r="A65" s="86">
         <f t="shared" ref="A65:A66" si="11">A64+1</f>
         <v>44</v>
       </c>
-      <c r="B65" s="88" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="89" t="s">
-        <v>144</v>
+      <c r="B65" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="66" ht="51" customHeight="1">
-      <c r="A66" s="87">
+      <c r="A66" s="86">
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
-      <c r="B66" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="C66" s="89" t="s">
-        <v>144</v>
+      <c r="B66" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
@@ -35963,7 +36062,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{004D000B-0025-4104-8F0A-006B002A0034}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00E200AB-0038-41F9-BF1D-0072004200F3}">
             <xm:f>"Enter score"</xm:f>
             <x14:dxf>
               <font/>
@@ -36029,18 +36128,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="90" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="90" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="90" t="s">
-        <v>190</v>
+      <c r="A1" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="91">
+      <c r="A2" s="90">
         <v>0</v>
       </c>
       <c r="B2" s="26" t="str">
@@ -36049,97 +36148,97 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="91">
+      <c r="A3" s="90">
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="93">
+        <v>211</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="92">
         <f>A4</f>
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="91">
+      <c r="A4" s="90">
         <v>29</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="93">
+        <v>213</v>
+      </c>
+      <c r="D4" s="92">
         <f t="shared" ref="D4:D7" si="12">A4</f>
         <v>29</v>
       </c>
-      <c r="E4" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" s="93">
+      <c r="E4" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="92">
         <f t="shared" ref="F4:F6" si="13">A5</f>
         <v>49</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="91">
+      <c r="A5" s="90">
         <v>49</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="93">
+        <v>213</v>
+      </c>
+      <c r="D5" s="92">
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
-      <c r="E5" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" s="93">
+      <c r="E5" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="92">
         <f t="shared" si="13"/>
         <v>69</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="91">
+      <c r="A6" s="90">
         <v>69</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="93">
+        <v>213</v>
+      </c>
+      <c r="D6" s="92">
         <f t="shared" si="12"/>
         <v>69</v>
       </c>
-      <c r="E6" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" s="93">
+      <c r="E6" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="92">
         <f t="shared" si="13"/>
         <v>89</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="91">
+      <c r="A7" s="90">
         <v>89</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="93">
+      <c r="C7" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="92">
         <f t="shared" si="12"/>
         <v>89</v>
       </c>

--- a/P1/Usability-review-template.xlsx
+++ b/P1/Usability-review-template.xlsx
@@ -723,7 +723,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t xml:space="preserve">Usability review (Español)</t>
   </si>
@@ -933,6 +933,9 @@
   </si>
   <si>
     <t xml:space="preserve">Se solicita una cantidad mínima de información y, cuando se proporciona la justificación necesaria para solicitar información (por ejemplo, fecha de nacimiento, número de teléfono)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si se solicita información es para hacer la reserva o para  crearse una cuenta</t>
   </si>
   <si>
     <t xml:space="preserve">Los campos de formulario requeridos y opcionales están claramente indicados</t>
@@ -5090,7 +5093,9 @@
         <v>#REF!</v>
       </c>
       <c r="H69" s="7"/>
-      <c r="I69" s="41"/>
+      <c r="I69" s="41" t="s">
+        <v>69</v>
+      </c>
       <c r="J69" s="7"/>
       <c r="K69" s="14">
         <v>2</v>
@@ -5135,7 +5140,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="40" t="s">
@@ -5152,7 +5157,7 @@
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="14">
@@ -5198,7 +5203,7 @@
         <v>28</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="40" t="s">
@@ -5259,7 +5264,7 @@
         <v>29</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="40" t="s">
@@ -5276,7 +5281,7 @@
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J75" s="7"/>
       <c r="K75" s="14">
@@ -5317,7 +5322,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C77" s="36"/>
       <c r="D77" s="53"/>
@@ -5355,7 +5360,7 @@
         <v>30</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="40" t="s">
@@ -5372,7 +5377,7 @@
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="14">
@@ -5418,7 +5423,7 @@
         <v>31</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="40" t="s">
@@ -5479,7 +5484,7 @@
         <v>32</v>
       </c>
       <c r="B83" s="39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="40" t="s">
@@ -5496,7 +5501,7 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J83" s="7"/>
       <c r="K83" s="14">
@@ -5542,7 +5547,7 @@
         <v>33</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="40" t="s">
@@ -5598,7 +5603,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C87" s="36"/>
       <c r="D87" s="53"/>
@@ -5636,7 +5641,7 @@
         <v>34</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="40" t="s">
@@ -5653,7 +5658,7 @@
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="14">
@@ -5699,7 +5704,7 @@
         <v>35</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="40" t="s">
@@ -5760,7 +5765,7 @@
         <v>36</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="40" t="s">
@@ -5777,7 +5782,7 @@
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="14">
@@ -5823,7 +5828,7 @@
         <v>37</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="40" t="s">
@@ -5840,7 +5845,7 @@
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="14">
@@ -5886,7 +5891,7 @@
         <v>38</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="40" t="s">
@@ -5903,7 +5908,7 @@
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J97" s="7"/>
       <c r="K97" s="14">
@@ -5944,7 +5949,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C99" s="36"/>
       <c r="D99" s="53"/>
@@ -5982,7 +5987,7 @@
         <v>39</v>
       </c>
       <c r="B101" s="39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="40" t="s">
@@ -6043,7 +6048,7 @@
         <v>40</v>
       </c>
       <c r="B103" s="39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="40" t="s">
@@ -6060,7 +6065,7 @@
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J103" s="7"/>
       <c r="K103" s="14">
@@ -6106,7 +6111,7 @@
         <v>41</v>
       </c>
       <c r="B105" s="39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="40" t="s">
@@ -6123,7 +6128,7 @@
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="14">
@@ -6169,7 +6174,7 @@
         <v>42</v>
       </c>
       <c r="B107" s="39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="40" t="s">
@@ -6186,7 +6191,7 @@
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="14">
@@ -6227,7 +6232,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C109" s="36"/>
       <c r="D109" s="53"/>
@@ -6265,7 +6270,7 @@
         <v>43</v>
       </c>
       <c r="B111" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C111" s="21"/>
       <c r="D111" s="40" t="s">
@@ -6348,7 +6353,7 @@
         <v>44</v>
       </c>
       <c r="B113" s="39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C113" s="21"/>
       <c r="D113" s="58" t="s">
@@ -6365,7 +6370,7 @@
       </c>
       <c r="H113" s="21"/>
       <c r="I113" s="41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J113" s="21"/>
       <c r="K113" s="31">
@@ -6433,7 +6438,7 @@
         <v>45</v>
       </c>
       <c r="B115" s="39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C115" s="21"/>
       <c r="D115" s="40" t="s">
@@ -6450,7 +6455,7 @@
       </c>
       <c r="H115" s="21"/>
       <c r="I115" s="41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J115" s="21"/>
       <c r="K115" s="31">
@@ -6502,7 +6507,7 @@
     </row>
     <row r="117" ht="24" customHeight="1">
       <c r="A117" s="62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B117" s="63"/>
       <c r="C117" s="64"/>
@@ -6635,10 +6640,10 @@
     </row>
     <row r="125" ht="13.5" customHeight="1">
       <c r="B125" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C125" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D125" s="79"/>
       <c r="E125" s="7"/>
@@ -6655,7 +6660,7 @@
       <c r="A126" s="7"/>
       <c r="B126" s="80"/>
       <c r="C126" s="81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D126" s="82"/>
       <c r="E126" s="82"/>
@@ -17185,7 +17190,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00DB00AC-000C-44D7-95EE-003600A800D4}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00A600C7-006B-46CE-9936-00B2003E0095}">
             <xm:f>"Enter score"</xm:f>
             <x14:dxf>
               <font/>
@@ -17226,19 +17231,19 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00FD0094-0071-4449-AF90-00E400320031}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt=" - " showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005E0098-000E-4262-BF88-00A2009E00D3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt=" - " showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$Q$1:$Q$8</xm:f>
           </x14:formula1>
           <xm:sqref>D18 D54 D74 D96</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CF007E-0043-42B6-9B03-006C006400F6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Invalid score entered - Score must be one of:&#10;&#10;Very poor&#10;Poor&#10;Moderate&#10;Good&#10;Excellent&#10;N/A" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00EC00F8-0049-4DE2-8361-00B700CE00E6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Invalid score entered - Score must be one of:&#10;&#10;Very poor&#10;Poor&#10;Moderate&#10;Good&#10;Excellent&#10;N/A" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$Q$1:$Q$8</xm:f>
           </x14:formula1>
           <xm:sqref>D24 D32</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D50000-006B-4101-9234-00CD00D700F1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Invalid score entered - Score must be one of:&#10;&#10;Very poor&#10;Poor&#10;Moderate&#10;Good&#10;Excellent&#10;N/A" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00200035-00B9-468B-B339-006400BD00C1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Invalid score entered - Score must be one of:&#10;&#10;Very poor&#10;Poor&#10;Moderate&#10;Good&#10;Excellent&#10;N/A" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$Q$1:$Q$7</xm:f>
           </x14:formula1>
@@ -17281,7 +17286,7 @@
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -17338,7 +17343,7 @@
     </row>
     <row r="3" ht="24" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="20" t="s">
@@ -17516,7 +17521,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="40" t="s">
@@ -17591,7 +17596,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="40" t="s">
@@ -17664,7 +17669,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="40" t="s">
@@ -17733,7 +17738,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="40" t="s">
@@ -17799,7 +17804,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="40" t="s">
@@ -17897,7 +17902,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="40" t="s">
@@ -17961,7 +17966,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="40" t="s">
@@ -18026,7 +18031,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="40" t="s">
@@ -18125,7 +18130,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="40" t="s">
@@ -18193,7 +18198,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="40" t="s">
@@ -18254,7 +18259,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="40" t="s">
@@ -18309,7 +18314,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="40" t="s">
@@ -18370,7 +18375,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="40" t="s">
@@ -18431,7 +18436,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="40" t="s">
@@ -18499,7 +18504,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="40" t="s">
@@ -18560,7 +18565,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="40" t="s">
@@ -18621,7 +18626,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="40" t="s">
@@ -18715,7 +18720,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="40" t="s">
@@ -18776,7 +18781,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="40" t="s">
@@ -18837,7 +18842,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="40" t="s">
@@ -18898,7 +18903,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="40" t="s">
@@ -18992,7 +18997,7 @@
         <v>22</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="40" t="s">
@@ -19053,7 +19058,7 @@
         <v>23</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="40" t="s">
@@ -19114,7 +19119,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="40" t="s">
@@ -19208,7 +19213,7 @@
         <v>25</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="40" t="s">
@@ -19269,7 +19274,7 @@
         <v>26</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="40" t="s">
@@ -19330,7 +19335,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="40" t="s">
@@ -19391,7 +19396,7 @@
         <v>28</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="40" t="s">
@@ -19452,7 +19457,7 @@
         <v>29</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="40" t="s">
@@ -19508,7 +19513,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C77" s="36"/>
       <c r="D77" s="53"/>
@@ -19546,7 +19551,7 @@
         <v>30</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="40" t="s">
@@ -19607,7 +19612,7 @@
         <v>31</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="40" t="s">
@@ -19668,7 +19673,7 @@
         <v>32</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="40" t="s">
@@ -19729,7 +19734,7 @@
         <v>33</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="40" t="s">
@@ -19785,7 +19790,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C87" s="36"/>
       <c r="D87" s="53"/>
@@ -19823,7 +19828,7 @@
         <v>34</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="40" t="s">
@@ -19884,7 +19889,7 @@
         <v>35</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="40" t="s">
@@ -19945,7 +19950,7 @@
         <v>36</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="40" t="s">
@@ -20006,7 +20011,7 @@
         <v>37</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="40" t="s">
@@ -20067,7 +20072,7 @@
         <v>38</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="40" t="s">
@@ -20123,7 +20128,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C99" s="36"/>
       <c r="D99" s="53"/>
@@ -20161,7 +20166,7 @@
         <v>39</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="40" t="s">
@@ -20222,7 +20227,7 @@
         <v>40</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="40" t="s">
@@ -20283,7 +20288,7 @@
         <v>41</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="40" t="s">
@@ -20344,7 +20349,7 @@
         <v>42</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="40" t="s">
@@ -20400,7 +20405,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C109" s="36"/>
       <c r="D109" s="53"/>
@@ -20438,7 +20443,7 @@
         <v>43</v>
       </c>
       <c r="B111" s="43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C111" s="21"/>
       <c r="D111" s="40" t="s">
@@ -20521,7 +20526,7 @@
         <v>44</v>
       </c>
       <c r="B113" s="43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C113" s="21"/>
       <c r="D113" s="40" t="s">
@@ -20604,7 +20609,7 @@
         <v>45</v>
       </c>
       <c r="B115" s="43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C115" s="21"/>
       <c r="D115" s="40" t="s">
@@ -20671,7 +20676,7 @@
     </row>
     <row r="117" ht="24" customHeight="1">
       <c r="A117" s="62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B117" s="63"/>
       <c r="C117" s="64"/>
@@ -31342,7 +31347,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{007400C6-00B7-4B43-9B9D-000B00370013}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0026006C-00B5-4B53-A5C5-00EE00E700F8}">
             <xm:f>"Enter score"</xm:f>
             <x14:dxf>
               <font/>
@@ -31383,19 +31388,19 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00110030-0052-481B-8405-00BE00AA00E9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt=" - " showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00020014-00CA-431C-AAD7-0031000E0054}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt=" - " showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$Q$1:$Q$8</xm:f>
           </x14:formula1>
           <xm:sqref>D18 D54 D74 D96</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D1003C-0089-47DF-A41E-000B009C00B7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Invalid score entered - Score must be one of:&#10;&#10;Very poor&#10;Poor&#10;Moderate&#10;Good&#10;Excellent&#10;N/A" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D60067-0078-4C14-80B7-007F00CB0098}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Invalid score entered - Score must be one of:&#10;&#10;Very poor&#10;Poor&#10;Moderate&#10;Good&#10;Excellent&#10;N/A" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$Q$1:$Q$8</xm:f>
           </x14:formula1>
           <xm:sqref>D24 D32</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00870037-00BC-4C74-B729-00BB00090060}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Invalid score entered - Score must be one of:&#10;&#10;Very poor&#10;Poor&#10;Moderate&#10;Good&#10;Excellent&#10;N/A" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007D00E1-0049-4285-BE7A-001400CB0035}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Invalid score entered - Score must be one of:&#10;&#10;Very poor&#10;Poor&#10;Moderate&#10;Good&#10;Excellent&#10;N/A" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$Q$1:$Q$7</xm:f>
           </x14:formula1>
@@ -31428,7 +31433,7 @@
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -31436,7 +31441,7 @@
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="59"/>
       <c r="C2" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" ht="24.75" customHeight="1">
@@ -31474,10 +31479,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" ht="38.25" customHeight="1">
@@ -31486,10 +31491,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="88" t="s">
         <v>160</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" ht="38.25" customHeight="1">
@@ -31498,10 +31503,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" ht="38.25" customHeight="1">
@@ -31510,10 +31515,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" ht="38.25" customHeight="1">
@@ -31522,10 +31527,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="88" t="s">
         <v>165</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -31568,10 +31573,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" ht="51" customHeight="1">
@@ -31580,10 +31585,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="87" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" ht="38.25" customHeight="1">
@@ -31592,10 +31597,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="87" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -31638,10 +31643,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1">
@@ -31650,10 +31655,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="87" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" ht="38.25" customHeight="1">
@@ -31662,10 +31667,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="87" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" ht="51" customHeight="1">
@@ -31674,10 +31679,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" ht="51" customHeight="1">
@@ -31686,10 +31691,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" ht="38.25" customHeight="1">
@@ -31698,10 +31703,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="87" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -31710,10 +31715,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="87" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C22" s="88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -31722,10 +31727,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="87" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C23" s="88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -31734,10 +31739,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="87" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -31780,10 +31785,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C27" s="88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" ht="38.25" customHeight="1">
@@ -31792,10 +31797,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" ht="51" customHeight="1">
@@ -31804,10 +31809,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="87" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C29" s="88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" ht="38.25" customHeight="1">
@@ -31816,10 +31821,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="87" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C30" s="88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -31862,10 +31867,10 @@
         <v>22</v>
       </c>
       <c r="B33" s="87" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C33" s="88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" ht="51" customHeight="1">
@@ -31874,10 +31879,10 @@
         <v>23</v>
       </c>
       <c r="B34" s="87" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C34" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" ht="38.25" customHeight="1">
@@ -31886,10 +31891,10 @@
         <v>24</v>
       </c>
       <c r="B35" s="87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C35" s="88" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -31932,10 +31937,10 @@
         <v>25</v>
       </c>
       <c r="B38" s="87" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C38" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" ht="63.75" customHeight="1">
@@ -31944,10 +31949,10 @@
         <v>26</v>
       </c>
       <c r="B39" s="87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C39" s="88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" ht="38.25" customHeight="1">
@@ -31956,10 +31961,10 @@
         <v>27</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C40" s="88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" ht="63.75" customHeight="1">
@@ -31968,10 +31973,10 @@
         <v>28</v>
       </c>
       <c r="B41" s="87" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" ht="38.25" customHeight="1">
@@ -31980,10 +31985,10 @@
         <v>29</v>
       </c>
       <c r="B42" s="87" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -31992,7 +31997,7 @@
     </row>
     <row r="44" ht="24.75" customHeight="1">
       <c r="A44" s="85" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -32026,10 +32031,10 @@
         <v>30</v>
       </c>
       <c r="B45" s="87" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C45" s="88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" ht="38.25" customHeight="1">
@@ -32038,10 +32043,10 @@
         <v>31</v>
       </c>
       <c r="B46" s="87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C46" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" ht="51" customHeight="1">
@@ -32050,10 +32055,10 @@
         <v>32</v>
       </c>
       <c r="B47" s="87" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C47" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -32062,10 +32067,10 @@
         <v>33</v>
       </c>
       <c r="B48" s="87" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C48" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -32074,7 +32079,7 @@
     </row>
     <row r="50" ht="24.75" customHeight="1">
       <c r="A50" s="85" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -32108,10 +32113,10 @@
         <v>34</v>
       </c>
       <c r="B51" s="87" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C51" s="88" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" ht="38.25" customHeight="1">
@@ -32120,10 +32125,10 @@
         <v>35</v>
       </c>
       <c r="B52" s="87" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C52" s="88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -32132,10 +32137,10 @@
         <v>36</v>
       </c>
       <c r="B53" s="87" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C53" s="88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" ht="38.25" customHeight="1">
@@ -32144,10 +32149,10 @@
         <v>37</v>
       </c>
       <c r="B54" s="87" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C54" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -32156,10 +32161,10 @@
         <v>38</v>
       </c>
       <c r="B55" s="87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C55" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -32168,7 +32173,7 @@
     </row>
     <row r="57" ht="24.75" customHeight="1">
       <c r="A57" s="85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -32202,10 +32207,10 @@
         <v>39</v>
       </c>
       <c r="B58" s="87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C58" s="88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" ht="38.25" customHeight="1">
@@ -32214,10 +32219,10 @@
         <v>40</v>
       </c>
       <c r="B59" s="87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C59" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" ht="51" customHeight="1">
@@ -32226,10 +32231,10 @@
         <v>41</v>
       </c>
       <c r="B60" s="87" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C60" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" ht="38.25" customHeight="1">
@@ -32238,10 +32243,10 @@
         <v>42</v>
       </c>
       <c r="B61" s="87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C61" s="88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
@@ -32250,7 +32255,7 @@
     </row>
     <row r="63" ht="24.75" customHeight="1">
       <c r="A63" s="85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -32284,10 +32289,10 @@
         <v>43</v>
       </c>
       <c r="B64" s="87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C64" s="88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -32296,10 +32301,10 @@
         <v>44</v>
       </c>
       <c r="B65" s="87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C65" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" ht="51" customHeight="1">
@@ -32308,10 +32313,10 @@
         <v>45</v>
       </c>
       <c r="B66" s="87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C66" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
@@ -36062,7 +36067,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00E200AB-0038-41F9-BF1D-0072004200F3}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D900AA-00AF-4C85-BA0C-004300CF0031}">
             <xm:f>"Enter score"</xm:f>
             <x14:dxf>
               <font/>
@@ -36129,13 +36134,13 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="89" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C1" s="89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -36152,10 +36157,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C3" s="91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D3" s="92">
         <f>A4</f>
@@ -36170,14 +36175,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D4" s="92">
         <f t="shared" ref="D4:D7" si="12">A4</f>
         <v>29</v>
       </c>
       <c r="E4" s="93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F4" s="92">
         <f t="shared" ref="F4:F6" si="13">A5</f>
@@ -36192,14 +36197,14 @@
         <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D5" s="92">
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="E5" s="93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F5" s="92">
         <f t="shared" si="13"/>
@@ -36214,14 +36219,14 @@
         <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D6" s="92">
         <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="E6" s="93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F6" s="92">
         <f t="shared" si="13"/>
@@ -36236,7 +36241,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D7" s="92">
         <f t="shared" si="12"/>
